--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.84962808521901</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N2">
-        <v>4.84962808521901</v>
+        <v>17.167995</v>
       </c>
       <c r="O2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q2">
-        <v>13.48303030507731</v>
+        <v>31.039458364525</v>
       </c>
       <c r="R2">
-        <v>13.48303030507731</v>
+        <v>279.355125280725</v>
       </c>
       <c r="S2">
-        <v>0.03398800918668735</v>
+        <v>0.04306874846864886</v>
       </c>
       <c r="T2">
-        <v>0.03398800918668735</v>
+        <v>0.04306874846864884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.2857627525154</v>
+        <v>41.286995</v>
       </c>
       <c r="N3">
-        <v>41.2857627525154</v>
+        <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q3">
-        <v>114.7834804192534</v>
+        <v>223.9386653419083</v>
       </c>
       <c r="R3">
-        <v>114.7834804192534</v>
+        <v>2015.447988077175</v>
       </c>
       <c r="S3">
-        <v>0.2893460816075173</v>
+        <v>0.3107257200415127</v>
       </c>
       <c r="T3">
-        <v>0.2893460816075173</v>
+        <v>0.3107257200415126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.7298034282571</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N4">
-        <v>14.7298034282571</v>
+        <v>0.186374</v>
       </c>
       <c r="O4">
-        <v>0.242007005906944</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P4">
-        <v>0.242007005906944</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q4">
-        <v>40.95208591692517</v>
+        <v>0.3369611893077778</v>
       </c>
       <c r="R4">
-        <v>40.95208591692517</v>
+        <v>3.03265070377</v>
       </c>
       <c r="S4">
-        <v>0.1032319768527347</v>
+        <v>0.0004675499338796385</v>
       </c>
       <c r="T4">
-        <v>0.1032319768527347</v>
+        <v>0.0004675499338796383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.5538614623364</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>1.5538614623364</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.2384072864369107</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.2384072864369107</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.84962808521901</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N5">
-        <v>4.84962808521901</v>
+        <v>49.092575</v>
       </c>
       <c r="O5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q5">
-        <v>7.535650188286086</v>
+        <v>88.75858466406945</v>
       </c>
       <c r="R5">
-        <v>7.535650188286086</v>
+        <v>798.827261976625</v>
       </c>
       <c r="S5">
-        <v>0.01899585939005728</v>
+        <v>0.1231568254972861</v>
       </c>
       <c r="T5">
-        <v>0.01899585939005728</v>
+        <v>0.123156825497286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2857627525154</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N6">
-        <v>41.2857627525154</v>
+        <v>17.167995</v>
       </c>
       <c r="O6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q6">
-        <v>64.15235568429726</v>
+        <v>9.061864825714999</v>
       </c>
       <c r="R6">
-        <v>64.15235568429726</v>
+        <v>81.55678343143498</v>
       </c>
       <c r="S6">
-        <v>0.1617151934698575</v>
+        <v>0.01257377536206207</v>
       </c>
       <c r="T6">
-        <v>0.1617151934698575</v>
+        <v>0.01257377536206206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7298034282571</v>
+        <v>41.286995</v>
       </c>
       <c r="N7">
-        <v>14.7298034282571</v>
+        <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q7">
-        <v>22.88807389495929</v>
+        <v>65.37813549281165</v>
       </c>
       <c r="R7">
-        <v>22.88807389495929</v>
+        <v>588.403219435305</v>
       </c>
       <c r="S7">
-        <v>0.05769623357699592</v>
+        <v>0.0907153224074063</v>
       </c>
       <c r="T7">
-        <v>0.05769623357699592</v>
+        <v>0.09071532240740629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.59625752450706</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>0.59625752450706</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.09148314819622125</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.09148314819622125</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.84962808521901</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N8">
-        <v>4.84962808521901</v>
+        <v>0.186374</v>
       </c>
       <c r="O8">
-        <v>0.07967818296981505</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P8">
-        <v>0.07967818296981505</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q8">
-        <v>2.8916272368726</v>
+        <v>0.09837467887355555</v>
       </c>
       <c r="R8">
-        <v>2.8916272368726</v>
+        <v>0.885372109862</v>
       </c>
       <c r="S8">
-        <v>0.007289211020633222</v>
+        <v>0.0001364996209125735</v>
       </c>
       <c r="T8">
-        <v>0.007289211020633222</v>
+        <v>0.0001364996209125734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.59625752450706</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>0.59625752450706</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.09148314819622125</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.09148314819622125</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.2857627525154</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N9">
-        <v>41.2857627525154</v>
+        <v>49.092575</v>
       </c>
       <c r="O9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q9">
-        <v>24.61694669620062</v>
+        <v>25.91276841566389</v>
       </c>
       <c r="R9">
-        <v>24.61694669620062</v>
+        <v>233.214915740975</v>
       </c>
       <c r="S9">
-        <v>0.06205437438967928</v>
+        <v>0.03595521841631386</v>
       </c>
       <c r="T9">
-        <v>0.06205437438967928</v>
+        <v>0.03595521841631386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7298034282571</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N10">
-        <v>14.7298034282571</v>
+        <v>17.167995</v>
       </c>
       <c r="O10">
-        <v>0.242007005906944</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P10">
-        <v>0.242007005906944</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q10">
-        <v>8.782756128608185</v>
+        <v>3.811708829434999</v>
       </c>
       <c r="R10">
-        <v>8.782756128608185</v>
+        <v>34.30537946491499</v>
       </c>
       <c r="S10">
-        <v>0.02213956278590875</v>
+        <v>0.005288930202412577</v>
       </c>
       <c r="T10">
-        <v>0.02213956278590875</v>
+        <v>0.005288930202412576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.58733762363322</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>1.58733762363322</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.84962808521901</v>
+        <v>41.286995</v>
       </c>
       <c r="N11">
-        <v>4.84962808521901</v>
+        <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.07967818296981505</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P11">
-        <v>0.07967818296981505</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q11">
-        <v>7.697997120296465</v>
+        <v>27.50012509597166</v>
       </c>
       <c r="R11">
-        <v>7.697997120296465</v>
+        <v>247.501125863745</v>
       </c>
       <c r="S11">
-        <v>0.01940510337243722</v>
+        <v>0.03815775251956161</v>
       </c>
       <c r="T11">
-        <v>0.01940510337243722</v>
+        <v>0.03815775251956161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.58733762363322</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>1.58733762363322</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>41.2857627525154</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N12">
-        <v>41.2857627525154</v>
+        <v>0.186374</v>
       </c>
       <c r="O12">
-        <v>0.678314811123241</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P12">
-        <v>0.678314811123241</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q12">
-        <v>65.5344445374627</v>
+        <v>0.04137952168422222</v>
       </c>
       <c r="R12">
-        <v>65.5344445374627</v>
+        <v>0.372415695158</v>
       </c>
       <c r="S12">
-        <v>0.1651991616561869</v>
+        <v>5.741608601030242E-05</v>
       </c>
       <c r="T12">
-        <v>0.1651991616561869</v>
+        <v>5.74160860103024E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.58733762363322</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>1.58733762363322</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.2435434977199288</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.7298034282571</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N13">
-        <v>14.7298034282571</v>
+        <v>49.092575</v>
       </c>
       <c r="O13">
-        <v>0.242007005906944</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P13">
-        <v>0.242007005906944</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q13">
-        <v>23.38117117039408</v>
+        <v>10.89973532653056</v>
       </c>
       <c r="R13">
-        <v>23.38117117039408</v>
+        <v>98.097617938775</v>
       </c>
       <c r="S13">
-        <v>0.05893923269130459</v>
+        <v>0.01512390949739353</v>
       </c>
       <c r="T13">
-        <v>0.05893923269130459</v>
+        <v>0.01512390949739353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.687463666666666</v>
+      </c>
+      <c r="H14">
+        <v>11.062391</v>
+      </c>
+      <c r="I14">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="J14">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.722664999999999</v>
+      </c>
+      <c r="N14">
+        <v>17.167995</v>
+      </c>
+      <c r="O14">
+        <v>0.09021166427595352</v>
+      </c>
+      <c r="P14">
+        <v>0.09021166427595351</v>
+      </c>
+      <c r="Q14">
+        <v>21.102119264005</v>
+      </c>
+      <c r="R14">
+        <v>189.919073376045</v>
+      </c>
+      <c r="S14">
+        <v>0.02928021024283002</v>
+      </c>
+      <c r="T14">
+        <v>0.02928021024283001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.687463666666666</v>
+      </c>
+      <c r="H15">
+        <v>11.062391</v>
+      </c>
+      <c r="I15">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="J15">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>41.286995</v>
+      </c>
+      <c r="N15">
+        <v>123.860985</v>
+      </c>
+      <c r="O15">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="P15">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="Q15">
+        <v>152.2442939683483</v>
+      </c>
+      <c r="R15">
+        <v>1370.198645715135</v>
+      </c>
+      <c r="S15">
+        <v>0.211246315116239</v>
+      </c>
+      <c r="T15">
+        <v>0.211246315116239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.687463666666666</v>
+      </c>
+      <c r="H16">
+        <v>11.062391</v>
+      </c>
+      <c r="I16">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="J16">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06212466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.186374</v>
+      </c>
+      <c r="O16">
+        <v>0.0009793286122093212</v>
+      </c>
+      <c r="P16">
+        <v>0.000979328612209321</v>
+      </c>
+      <c r="Q16">
+        <v>0.2290824511371111</v>
+      </c>
+      <c r="R16">
+        <v>2.061742060234</v>
+      </c>
+      <c r="S16">
+        <v>0.0003178629714068069</v>
+      </c>
+      <c r="T16">
+        <v>0.0003178629714068068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.687463666666666</v>
+      </c>
+      <c r="H17">
+        <v>11.062391</v>
+      </c>
+      <c r="I17">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="J17">
+        <v>0.3245723319466</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.36419166666667</v>
+      </c>
+      <c r="N17">
+        <v>49.092575</v>
+      </c>
+      <c r="O17">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="P17">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="Q17">
+        <v>60.34236220520278</v>
+      </c>
+      <c r="R17">
+        <v>543.081259846825</v>
+      </c>
+      <c r="S17">
+        <v>0.08372794361612414</v>
+      </c>
+      <c r="T17">
+        <v>0.08372794361612414</v>
       </c>
     </row>
   </sheetData>
